--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -23,10 +23,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Performer</t>
+  </si>
+  <si>
+    <t>BLEU-1</t>
+  </si>
+  <si>
+    <t>BLEU-2</t>
+  </si>
+  <si>
+    <t>BLEU-3</t>
+  </si>
+  <si>
+    <t>BLEU-4</t>
+  </si>
+  <si>
+    <t>METEOR</t>
+  </si>
+  <si>
+    <t>ROUGE_L</t>
+  </si>
+  <si>
+    <t>CIDEr</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>LSTM w/o Norm</t>
+  </si>
+  <si>
+    <t>Bi_LSTM w/o Norm</t>
+  </si>
+  <si>
+    <t>LSTM w Norm</t>
+  </si>
+  <si>
+    <t>Bi_LSTM w Norm</t>
+  </si>
+  <si>
+    <t>Performer Finetune</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +399,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.65428399999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.61648700000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.57760999999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.53951300000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.52441000000000004</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.78029400000000004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.6545690000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.26125700000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.16259899999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.10255300000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.0768000000000003E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.4871999999999998E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.28793099999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.23885600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.28348400000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.17576900000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.110666</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.5685999999999994E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.8993999999999999E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.28948600000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.26525799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.31209900000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.19983300000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.130693</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.2645999999999997E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.109711</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.32430599999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.37162499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.30549500000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.19370999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.12507799999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.7956999999999999E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.10814500000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.32195600000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.35091899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.73813200000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.67245900000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.61364300000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.56163300000000005</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.40223700000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.75250499999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.1533879999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +403,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -570,31 +571,52 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.73813200000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.67245900000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.61364300000000005</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.56163300000000005</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0.40223700000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.75250499999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>5.1533879999999996</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.75036099999999994</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.68695700000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.63023300000000004</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.58011999999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.41303299999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.76486100000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.3602270000000001</v>
       </c>
     </row>
   </sheetData>
